--- a/Bale_vehicles/Requirement_bale.xlsx
+++ b/Bale_vehicles/Requirement_bale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESE\2 Mechatronic Systems Engineering\git\MSE-ProjectHarvest\Bale_vehicles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31717100-2012-4484-9C64-CF62B486D58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AAEAA8-1DB8-4C39-9F75-F9DF38DA042E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{90953952-7D1A-4D2A-AB2F-2F9EA9806332}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>inches</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>Round bale</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
 </sst>
 </file>
@@ -585,7 +591,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I7" activeCellId="1" sqref="M6 I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +611,9 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
@@ -688,7 +696,15 @@
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
@@ -698,7 +714,9 @@
       <c r="J6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">

--- a/Bale_vehicles/Requirement_bale.xlsx
+++ b/Bale_vehicles/Requirement_bale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESE\2 Mechatronic Systems Engineering\git\MSE-ProjectHarvest\Bale_vehicles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AAEAA8-1DB8-4C39-9F75-F9DF38DA042E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDA9A01-00AB-4EC5-9C6C-58ACFA69008D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{90953952-7D1A-4D2A-AB2F-2F9EA9806332}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{90953952-7D1A-4D2A-AB2F-2F9EA9806332}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>inches</t>
   </si>
@@ -55,15 +55,6 @@
     <t>kg</t>
   </si>
   <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
     <t>How Much Does a Bale of Hay Weigh? (Types Sizes Weights) (hayforks.com)</t>
   </si>
   <si>
@@ -83,6 +74,18 @@
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>large bale</t>
+  </si>
+  <si>
+    <t>mid bale</t>
+  </si>
+  <si>
+    <t>small bale</t>
+  </si>
+  <si>
+    <t>weed bale</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -128,142 +131,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -273,6 +154,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,347 +471,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39519F10-E514-4CDA-9AE1-3828C2032B7B}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" activeCellId="1" sqref="M6 I7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="22.453125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="11.54296875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B4" s="2">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2">
+        <v>96</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6">
-        <v>36</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="B5" s="2">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6">
-        <v>44</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6">
-        <v>36</v>
-      </c>
-      <c r="C4" s="6">
-        <v>48</v>
-      </c>
-      <c r="D4" s="6">
-        <v>96</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="9">
-        <v>48</v>
-      </c>
-      <c r="C5" s="9">
-        <v>60</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="B7" s="3">
         <f t="shared" ref="B7:D10" si="0">ROUND(B2*25.4/1000, 1)</f>
         <v>0.4</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="3">
         <v>180</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="11">
-        <v>18</v>
-      </c>
-      <c r="I7" s="6">
-        <v>27</v>
-      </c>
-      <c r="J7" s="6">
-        <f>AVERAGE(H7, I7)</f>
-        <v>22.5</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>360</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="15">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="C8" s="15">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="D8" s="15">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="14">
-        <v>360</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F9" s="3">
+        <v>720</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="11">
-        <v>45</v>
-      </c>
-      <c r="I8" s="6">
-        <v>54</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" ref="J8:J10" si="1">AVERAGE(H8, I8)</f>
-        <v>49.5</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>400</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="15">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="C9" s="15">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="15">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="14">
-        <v>720</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="11">
-        <v>544</v>
-      </c>
-      <c r="I9" s="6">
-        <v>907</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="1"/>
-        <v>725.5</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="C10" s="17">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="D10" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="16">
-        <v>400</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="12">
-        <v>272</v>
-      </c>
-      <c r="I10" s="9">
-        <v>544</v>
-      </c>
-      <c r="J10" s="9">
-        <f t="shared" si="1"/>
-        <v>408</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
